--- a/data/testcase.xlsx
+++ b/data/testcase.xlsx
@@ -1,87 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>case_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,24 +59,103 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,81 +443,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col width="24.88671875" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="25.109375" customWidth="1" style="4" min="6" max="6"/>
+    <col width="26" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>checkey</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Test result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>publickey</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>设置变量</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>https://www.adbcde.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="72" customHeight="1" s="4">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>/login</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>门店登录</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>${url}/login</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Host:www.juyoujie.com.cn
+Content-Length:72
+Content-Type:application/x-www-formurlencode</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>userToken=</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>结果包含</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>"return_code":"SUCCESS"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>